--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>758270.0725728589</v>
+        <v>758812.122587323</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238721</v>
+        <v>2396483.305182806</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461769</v>
+        <v>8681080.949752064</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7618956.927042205</v>
+        <v>7729007.486335363</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>171.7842945418048</v>
+        <v>161.4085122120584</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>53.0363847091458</v>
+        <v>22.96189723698674</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>326.2749874485179</v>
+        <v>209.6190453308859</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E7" t="n">
-        <v>19.94568874373766</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>336.6327140501647</v>
+        <v>304.007403971462</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1348,7 +1350,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>110.8505069334775</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>289.1043232126777</v>
       </c>
     </row>
     <row r="12">
@@ -1585,7 +1587,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.0363847091458</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1610,16 +1612,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>316.5487336740566</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>25.35996799970722</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>304.0074039714629</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -1859,10 +1861,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>167.9683453503095</v>
       </c>
     </row>
     <row r="18">
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2065,7 +2067,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,25 +2083,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>74.34149951545339</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>92.31340177010377</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>24.3629918151688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>64.61657914851564</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>216.8387873648649</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>11.61260049965443</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>116.876383545772</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>171.9323416159863</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>13.00391679378399</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -2600,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.66230845704269</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>25.1660000875939</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>394.6220495976011</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -2849,10 +2851,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>254.1187931798069</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>178.0255299935642</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>394.6220495976011</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>315.2888038066675</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -3092,7 +3094,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>56.37305475817082</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>54.16209836146486</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,16 +3271,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>66.68447052885355</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>37.74482791597677</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>32.33997518201601</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>72.30123682227976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>188.9575272525259</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -3569,7 +3571,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>378.116723629329</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>135.6874999391762</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>147.8279795613425</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3752,13 +3754,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>74.7838198569475</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>17.24363479925001</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -3797,13 +3799,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>163.1726582438466</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>64.55667128999481</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>229.2671475085639</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4074,7 +4076,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>11.61260049965533</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.61153143263803</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>220.8324595377101</v>
+        <v>210.351871325845</v>
       </c>
       <c r="C2" t="n">
-        <v>220.8324595377101</v>
+        <v>210.351871325845</v>
       </c>
       <c r="D2" t="n">
-        <v>220.8324595377101</v>
+        <v>210.351871325845</v>
       </c>
       <c r="E2" t="n">
-        <v>220.8324595377101</v>
+        <v>210.351871325845</v>
       </c>
       <c r="F2" t="n">
-        <v>220.8324595377101</v>
+        <v>210.351871325845</v>
       </c>
       <c r="G2" t="n">
-        <v>220.8324595377101</v>
+        <v>210.351871325845</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
         <v>406.2953261290054</v>
@@ -4343,37 +4345,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U2" t="n">
-        <v>1719.881618012246</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V2" t="n">
-        <v>1377.774808715765</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W2" t="n">
-        <v>1006.775773684052</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X2" t="n">
-        <v>617.323168617109</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.8324595377101</v>
+        <v>610.8466170372419</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J3" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="L3" t="n">
-        <v>963.7331842818107</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M3" t="n">
-        <v>1549.231189288413</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N3" t="n">
-        <v>2131.28341352229</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O3" t="n">
-        <v>2131.28341352229</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4452,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4522,16 +4524,16 @@
         <v>100.8850758683575</v>
       </c>
       <c r="V4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.092355893942</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="C5" t="n">
-        <v>845.9168543968727</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D5" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E5" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X5" t="n">
-        <v>2036.077810684738</v>
+        <v>1185.053521758447</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.587101605339</v>
+        <v>1185.053521758447</v>
       </c>
     </row>
     <row r="6">
@@ -4638,13 +4640,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K6" t="n">
         <v>367.0521161637701</v>
@@ -4653,7 +4655,7 @@
         <v>367.0521161637701</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631986</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N6" t="n">
         <v>1443.506853769801</v>
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.7860652357804</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C7" t="n">
-        <v>224.7860652357804</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D7" t="n">
-        <v>224.7860652357804</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E7" t="n">
-        <v>204.6389048885707</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4750,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>510.2248569938795</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>224.7860652357804</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>224.7860652357804</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>224.7860652357804</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X7" t="n">
-        <v>224.7860652357804</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.7860652357804</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.31297010154361</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C8" t="n">
-        <v>47.31297010154361</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
         <v>406.2953261290054</v>
@@ -4817,37 +4819,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V8" t="n">
-        <v>1544.288363774714</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W8" t="n">
-        <v>1173.289328743002</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X8" t="n">
-        <v>783.8367236760583</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y8" t="n">
-        <v>387.3460145966595</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4996,16 +4998,16 @@
         <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>440.488471598613</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
         <v>406.2953261290054</v>
@@ -5054,37 +5056,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.925566488064</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W11" t="n">
-        <v>1626.926531456352</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X11" t="n">
-        <v>1237.473926389409</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y11" t="n">
-        <v>840.9832173100099</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L12" t="n">
         <v>530.8790559998569</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O12" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P12" t="n">
         <v>2365.648505077179</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5233,16 +5235,16 @@
         <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1965.153759365783</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C14" t="n">
-        <v>1571.978257868714</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D14" t="n">
-        <v>1186.537129085382</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E14" t="n">
-        <v>783.9536042019261</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F14" t="n">
-        <v>367.0591657319038</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
         <v>191.9627430103717</v>
@@ -5282,46 +5284,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>851.7967205028091</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M14" t="n">
-        <v>1397.79762054739</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N14" t="n">
-        <v>1925.608904184852</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>2340.032375784546</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>1997.925566488064</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1626.926531456352</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.64850507718</v>
+        <v>1237.473926389409</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.64850507718</v>
+        <v>840.9832173100099</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5351,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L15" t="n">
-        <v>272.5108437565964</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>858.0088487631986</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769801</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P15" t="n">
         <v>2365.648505077179</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2058.57031924742</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C17" t="n">
-        <v>1665.394817750351</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D17" t="n">
-        <v>1279.953688967018</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E17" t="n">
-        <v>877.3701640835627</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.64850507718</v>
+        <v>2936.291389902433</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.875066013061</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>2218.395348604042</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>882.0615091076409</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U19" t="n">
-        <v>596.6227173495417</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V19" t="n">
-        <v>330.643372170366</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154361</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>522.652680240431</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C20" t="n">
-        <v>447.5602564874478</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D20" t="n">
-        <v>62.11912770411553</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="E20" t="n">
-        <v>62.11912770411553</v>
+        <v>1123.759298967512</v>
       </c>
       <c r="F20" t="n">
-        <v>62.11912770411553</v>
+        <v>706.8648604974898</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411553</v>
+        <v>293.7021049854929</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.09074009817</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.638135031227</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y20" t="n">
-        <v>923.1474259518279</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5837,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1345.668748541356</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1862.189031132337</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.11912770411553</v>
+        <v>555.24607037101</v>
       </c>
       <c r="C22" t="n">
-        <v>62.11912770411553</v>
+        <v>555.24607037101</v>
       </c>
       <c r="D22" t="n">
-        <v>62.11912770411553</v>
+        <v>399.6129572735247</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411553</v>
+        <v>244.0541451327272</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411553</v>
+        <v>86.72821034570018</v>
       </c>
       <c r="G22" t="n">
         <v>62.11912770411553</v>
@@ -5935,25 +5937,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>525.0310145964513</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U22" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V22" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X22" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.11912770411553</v>
+        <v>740.4540890623113</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1935.347758983887</v>
+        <v>857.8781540846404</v>
       </c>
       <c r="C23" t="n">
-        <v>1542.172257486817</v>
+        <v>464.702652587571</v>
       </c>
       <c r="D23" t="n">
-        <v>1156.731128703485</v>
+        <v>464.702652587571</v>
       </c>
       <c r="E23" t="n">
-        <v>1156.731128703485</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F23" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G23" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6020,19 +6022,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U23" t="n">
-        <v>2677.949313991765</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V23" t="n">
-        <v>2335.842504695284</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W23" t="n">
-        <v>2335.842504695284</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X23" t="n">
-        <v>2335.842504695284</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y23" t="n">
-        <v>2335.842504695284</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>2697.636305331118</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>2527.431187397107</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>2371.798074299622</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>2216.239262158824</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U25" t="n">
-        <v>845.5091971691305</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V25" t="n">
-        <v>579.5298519899548</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W25" t="n">
-        <v>296.1994499211324</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X25" t="n">
-        <v>62.11912770411553</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411553</v>
+        <v>2882.84432402242</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1344.012821542897</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C26" t="n">
-        <v>950.8373200458277</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D26" t="n">
-        <v>950.8373200458277</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E26" t="n">
-        <v>950.8373200458277</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F26" t="n">
         <v>937.702050557157</v>
@@ -6221,7 +6223,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6239,37 +6241,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O26" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P26" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q26" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T26" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U26" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="V26" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="W26" t="n">
-        <v>2530.450881400636</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="X26" t="n">
-        <v>2140.998276333693</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="Y26" t="n">
-        <v>1744.507567254294</v>
+        <v>2709.465676126376</v>
       </c>
     </row>
     <row r="27">
@@ -6288,10 +6290,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E27" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F27" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G27" t="n">
         <v>199.803798091603</v>
@@ -6300,25 +6302,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2204.509362664224</v>
+        <v>87.53932981279621</v>
       </c>
       <c r="C28" t="n">
-        <v>2204.509362664224</v>
+        <v>87.53932981279621</v>
       </c>
       <c r="D28" t="n">
-        <v>2204.509362664224</v>
+        <v>87.53932981279621</v>
       </c>
       <c r="E28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K28" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L28" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M28" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N28" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O28" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P28" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>3105.956385205776</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S28" t="n">
-        <v>2903.140301388325</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T28" t="n">
-        <v>2667.42124955656</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="U28" t="n">
-        <v>2667.42124955656</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="V28" t="n">
-        <v>2667.42124955656</v>
+        <v>370.8697318816186</v>
       </c>
       <c r="W28" t="n">
-        <v>2667.42124955656</v>
+        <v>87.53932981279621</v>
       </c>
       <c r="X28" t="n">
-        <v>2433.340927339543</v>
+        <v>87.53932981279621</v>
       </c>
       <c r="Y28" t="n">
-        <v>2210.228866156186</v>
+        <v>87.53932981279621</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>979.0728748920524</v>
+        <v>923.1474259518279</v>
       </c>
       <c r="C29" t="n">
-        <v>585.897373394983</v>
+        <v>923.1474259518279</v>
       </c>
       <c r="D29" t="n">
-        <v>200.4562446116507</v>
+        <v>923.1474259518279</v>
       </c>
       <c r="E29" t="n">
-        <v>200.4562446116507</v>
+        <v>923.1474259518279</v>
       </c>
       <c r="F29" t="n">
-        <v>200.4562446116507</v>
+        <v>923.1474259518279</v>
       </c>
       <c r="G29" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H29" t="n">
         <v>200.4562446116507</v>
@@ -6497,16 +6499,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>2422.196584426364</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W29" t="n">
-        <v>2165.510934749791</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X29" t="n">
-        <v>1776.058329682848</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y29" t="n">
-        <v>1379.567620603449</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="30">
@@ -6552,10 +6554,10 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P30" t="n">
         <v>2380.454662679751</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2271.207846199679</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="C31" t="n">
-        <v>2271.207846199679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2271.207846199679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2271.207846199679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2271.207846199679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>783.7423825754011</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>783.7423825754011</v>
       </c>
       <c r="U31" t="n">
-        <v>2820.517593447677</v>
+        <v>498.3035908173021</v>
       </c>
       <c r="V31" t="n">
-        <v>2554.538248268502</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="W31" t="n">
-        <v>2271.207846199679</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="X31" t="n">
-        <v>2271.207846199679</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="Y31" t="n">
-        <v>2271.207846199679</v>
+        <v>232.3242456381263</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>524.5392950451601</v>
+        <v>912.1052853073743</v>
       </c>
       <c r="C32" t="n">
-        <v>524.5392950451601</v>
+        <v>518.9297838103048</v>
       </c>
       <c r="D32" t="n">
-        <v>524.5392950451601</v>
+        <v>518.9297838103048</v>
       </c>
       <c r="E32" t="n">
-        <v>524.5392950451601</v>
+        <v>518.9297838103048</v>
       </c>
       <c r="F32" t="n">
-        <v>524.5392950451601</v>
+        <v>518.9297838103048</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>518.9297838103048</v>
       </c>
       <c r="H32" t="n">
         <v>200.4562446116507</v>
@@ -6740,10 +6742,10 @@
         <v>1709.09074009817</v>
       </c>
       <c r="X32" t="n">
-        <v>1319.638135031227</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="Y32" t="n">
-        <v>923.1474259518279</v>
+        <v>1312.600031018771</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>175.2341099238429</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>289.2667251918342</v>
+        <v>442.408306655803</v>
       </c>
       <c r="C34" t="n">
-        <v>119.0616072578234</v>
+        <v>442.408306655803</v>
       </c>
       <c r="D34" t="n">
-        <v>62.11912770411553</v>
+        <v>442.408306655803</v>
       </c>
       <c r="E34" t="n">
-        <v>62.11912770411553</v>
+        <v>387.699116391697</v>
       </c>
       <c r="F34" t="n">
-        <v>62.11912770411553</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G34" t="n">
         <v>62.11912770411553</v>
@@ -6886,22 +6888,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U34" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V34" t="n">
-        <v>697.5868050664922</v>
+        <v>442.408306655803</v>
       </c>
       <c r="W34" t="n">
-        <v>697.5868050664922</v>
+        <v>442.408306655803</v>
       </c>
       <c r="X34" t="n">
-        <v>697.5868050664922</v>
+        <v>442.408306655803</v>
       </c>
       <c r="Y34" t="n">
-        <v>474.4747438831355</v>
+        <v>442.408306655803</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>522.652680240431</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C35" t="n">
-        <v>129.4771787433615</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D35" t="n">
-        <v>62.11912770411553</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E35" t="n">
-        <v>62.11912770411553</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F35" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G35" t="n">
         <v>62.11912770411553</v>
@@ -6965,22 +6967,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T35" t="n">
-        <v>2677.949313991765</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="U35" t="n">
-        <v>2422.196584426364</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="V35" t="n">
-        <v>2080.089775129883</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="W35" t="n">
-        <v>1709.09074009817</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="X35" t="n">
-        <v>1319.638135031227</v>
+        <v>2473.871222561389</v>
       </c>
       <c r="Y35" t="n">
-        <v>923.1474259518279</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7022,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.11912770411553</v>
+        <v>413.7370158774377</v>
       </c>
       <c r="C37" t="n">
-        <v>62.11912770411553</v>
+        <v>413.7370158774377</v>
       </c>
       <c r="D37" t="n">
-        <v>62.11912770411553</v>
+        <v>413.7370158774377</v>
       </c>
       <c r="E37" t="n">
-        <v>62.11912770411553</v>
+        <v>413.7370158774377</v>
       </c>
       <c r="F37" t="n">
-        <v>62.11912770411553</v>
+        <v>413.7370158774377</v>
       </c>
       <c r="G37" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H37" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J37" t="n">
         <v>62.11912770411553</v>
@@ -7123,22 +7125,22 @@
         <v>636.8490770607943</v>
       </c>
       <c r="T37" t="n">
-        <v>401.1300252290284</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="U37" t="n">
-        <v>401.1300252290284</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="V37" t="n">
-        <v>135.1506800498527</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="W37" t="n">
-        <v>62.11912770411553</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="X37" t="n">
-        <v>62.11912770411553</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.11912770411553</v>
+        <v>413.7370158774377</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>937.702050557157</v>
+        <v>1192.540435146691</v>
       </c>
       <c r="C38" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="D38" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="E38" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F38" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U38" t="n">
-        <v>2422.196584426364</v>
+        <v>2691.589593621227</v>
       </c>
       <c r="V38" t="n">
-        <v>2080.089775129883</v>
+        <v>2349.482784324746</v>
       </c>
       <c r="W38" t="n">
-        <v>1709.09074009817</v>
+        <v>1978.483749293033</v>
       </c>
       <c r="X38" t="n">
-        <v>1319.638135031227</v>
+        <v>1589.03114422609</v>
       </c>
       <c r="Y38" t="n">
-        <v>937.702050557157</v>
+        <v>1192.540435146691</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.11912770411553</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="C40" t="n">
-        <v>62.11912770411553</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="D40" t="n">
-        <v>62.11912770411553</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="E40" t="n">
-        <v>62.11912770411553</v>
+        <v>543.177667430203</v>
       </c>
       <c r="F40" t="n">
-        <v>62.11912770411553</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H40" t="n">
         <v>62.11912770411553</v>
@@ -7357,25 +7359,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V40" t="n">
-        <v>494.7707212490415</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W40" t="n">
-        <v>211.4403191802191</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="X40" t="n">
-        <v>62.11912770411553</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.11912770411553</v>
+        <v>680.2357481768456</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>957.136303034308</v>
+        <v>2021.701838714967</v>
       </c>
       <c r="C41" t="n">
-        <v>957.136303034308</v>
+        <v>2021.701838714967</v>
       </c>
       <c r="D41" t="n">
-        <v>957.136303034308</v>
+        <v>1636.260709931635</v>
       </c>
       <c r="E41" t="n">
-        <v>554.5527781508524</v>
+        <v>1233.677185048179</v>
       </c>
       <c r="F41" t="n">
-        <v>137.6583396808302</v>
+        <v>816.7827465781571</v>
       </c>
       <c r="G41" t="n">
-        <v>137.6583396808302</v>
+        <v>403.6199910661603</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>79.5369406326509</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T41" t="n">
-        <v>2715.942227706244</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U41" t="n">
-        <v>2460.189498140842</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V41" t="n">
-        <v>2118.082688844361</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W41" t="n">
-        <v>1747.083653812648</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X41" t="n">
-        <v>1357.631048745705</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="Y41" t="n">
-        <v>1357.631048745705</v>
+        <v>2422.196584426364</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
         <v>62.11912770411553</v>
@@ -7591,28 +7593,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R43" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>401.1300252290284</v>
+        <v>798.7452833326915</v>
       </c>
       <c r="U43" t="n">
-        <v>115.6912334709294</v>
+        <v>513.3064915745925</v>
       </c>
       <c r="V43" t="n">
-        <v>115.6912334709294</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="W43" t="n">
-        <v>115.6912334709294</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="X43" t="n">
-        <v>115.6912334709294</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.6912334709294</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1279.953688967018</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C44" t="n">
-        <v>1279.953688967018</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D44" t="n">
-        <v>1279.953688967018</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>877.3701640835627</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K44" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
-        <v>540.6332618200724</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1086.634161864653</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1614.445445502115</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2142.147902636597</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2142.147902636597</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2076.939143757814</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W44" t="n">
-        <v>2076.939143757814</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X44" t="n">
-        <v>2076.939143757814</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y44" t="n">
-        <v>1680.448434678415</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415753</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016675</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231478</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340356</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171674</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890318</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963275</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="K45" t="n">
-        <v>367.0521161637701</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L45" t="n">
-        <v>850.6182020620834</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M45" t="n">
-        <v>1436.116207068686</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1436.116207068686</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1952.636489659666</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.28341352229</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257018</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825366</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1957.328425202522</v>
+        <v>2303.106869161838</v>
       </c>
       <c r="C46" t="n">
-        <v>1787.123307268512</v>
+        <v>2303.106869161838</v>
       </c>
       <c r="D46" t="n">
-        <v>1631.490194171026</v>
+        <v>2303.106869161838</v>
       </c>
       <c r="E46" t="n">
-        <v>1475.931382030229</v>
+        <v>2303.106869161838</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.201482535628</v>
+        <v>2303.106869161838</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K46" t="n">
-        <v>1546.036523645569</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L46" t="n">
-        <v>1710.164163519369</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M46" t="n">
-        <v>1896.455741857633</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N46" t="n">
-        <v>2079.645375888842</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.350142930551</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P46" t="n">
-        <v>2362.226308707129</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R46" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S46" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T46" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U46" t="n">
-        <v>2365.64850507718</v>
+        <v>2820.517593447677</v>
       </c>
       <c r="V46" t="n">
-        <v>2365.64850507718</v>
+        <v>2820.517593447677</v>
       </c>
       <c r="W46" t="n">
-        <v>2365.64850507718</v>
+        <v>2537.187191378855</v>
       </c>
       <c r="X46" t="n">
-        <v>2365.64850507718</v>
+        <v>2303.106869161838</v>
       </c>
       <c r="Y46" t="n">
-        <v>2142.536443893824</v>
+        <v>2303.106869161838</v>
       </c>
     </row>
   </sheetData>
@@ -7991,7 +7993,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>673.3036524843452</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,10 +8218,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8228,10 +8230,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8301,10 +8303,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>588.3030135638861</v>
+        <v>588.3030135638863</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8465,7 +8467,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8532,25 +8534,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>377.8426560230616</v>
       </c>
       <c r="O9" t="n">
-        <v>353.4472259067894</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8702,7 +8704,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P11" t="n">
         <v>150.3014472409252</v>
@@ -8775,16 +8777,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8930,7 +8932,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>457.1386964627902</v>
+        <v>457.1386964627893</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -9009,19 +9011,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>317.5329465084867</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9176,13 +9178,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,16 +9251,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>235.8239269133925</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9483,13 +9485,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,16 +9719,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9893,7 +9895,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9954,7 +9956,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9969,7 +9971,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10200,13 +10202,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10367,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10425,16 +10427,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10443,10 +10445,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10604,7 +10606,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10668,7 +10670,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10680,7 +10682,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10902,7 +10904,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10917,7 +10919,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
@@ -11309,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>556.6502691852513</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,16 +11375,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>133.4455245943154</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -11391,7 +11393,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>267.5348030643886</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -22562,7 +22564,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>149.0579253873694</v>
+        <v>159.4337077171158</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22595,10 +22597,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22726,7 +22728,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22762,7 +22764,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182382</v>
+        <v>240.3576544903973</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22784,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22799,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22838,19 +22840,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>59.28309156775578</v>
+        <v>175.9390336853879</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22945,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E7" t="n">
-        <v>134.0575352756518</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22990,13 +22992,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.85708420411822</v>
+        <v>92.48239428282091</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23072,22 +23074,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23264,13 +23266,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23312,19 +23314,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>227.8352342700393</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>103.4214787759271</v>
       </c>
     </row>
     <row r="12">
@@ -23498,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>92.48239428282028</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23549,19 +23551,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>227.8352342700401</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.48239428282</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>224.5574566382954</v>
       </c>
     </row>
     <row r="18">
@@ -23941,7 +23943,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>314.9022469666453</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>228.5288181590705</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>142.2085215463801</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24175,13 +24177,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24190,10 +24192,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>56.04115481195237</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>331.8732191057672</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>195.8867067204571</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>144.1400749395023</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
@@ -24418,19 +24420,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>165.708020294746</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>224.5574566382966</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>399.721577291538</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24488,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
@@ -24503,10 +24505,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6936300473456</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24607,7 +24609,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>128.8372239317956</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24692,10 +24694,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>14.40907835927572</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24737,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>113.1702515015885</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24850,7 +24852,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>100.5400146614479</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
@@ -24886,7 +24888,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>22.76239298571193</v>
       </c>
       <c r="T31" t="n">
         <v>233.3618613134482</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.867748656681783</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -24932,7 +24934,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.553416122506746</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>97.70372720833959</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>99.84112565792464</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25126,13 +25128,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25141,7 +25143,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25157,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>314.9022469666454</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25205,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>183.5207685002007</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25324,16 +25326,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>134.2315381795329</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>208.1958612258544</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25393,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>64.23767501722145</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>14.4090783592759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25555,16 +25557,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>18.3157240802133</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -25597,7 +25599,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
@@ -25606,13 +25608,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>83.9115394335042</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25631,7 +25633,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>246.0584000722267</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>119.7101109392098</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25801,7 +25803,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>100.8873808189752</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>70.1892030696016</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25916,19 +25918,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>274.129069913522</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>138.0218971728315</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>144.1400749395015</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>68.95998192891088</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26077,19 +26079,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>621265.6147921827</v>
+        <v>621265.6147921822</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>621265.6147921827</v>
+        <v>621265.6147921825</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621265.6147921827</v>
+        <v>621265.6147921825</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621265.6147921827</v>
+        <v>621265.6147921822</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>621265.6147921827</v>
+        <v>699906.7374890822</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>699906.7374890822</v>
+        <v>699906.7374890818</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>699906.7374890822</v>
+        <v>699906.7374890818</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699906.7374890822</v>
+        <v>699906.7374890823</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>699906.7374890824</v>
+        <v>699906.7374890819</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699906.7374890822</v>
+        <v>699906.7374890819</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>621265.6147921823</v>
+        <v>699906.7374890822</v>
       </c>
     </row>
   </sheetData>
@@ -26326,34 +26328,34 @@
         <v>180687.3047541645</v>
       </c>
       <c r="G2" t="n">
-        <v>180687.3047541645</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="H2" t="n">
         <v>203556.2798509409</v>
       </c>
       <c r="I2" t="n">
-        <v>203556.2798509409</v>
+        <v>203556.2798509408</v>
       </c>
       <c r="J2" t="n">
-        <v>203556.2798509409</v>
+        <v>203556.2798509408</v>
       </c>
       <c r="K2" t="n">
         <v>203556.2798509409</v>
       </c>
       <c r="L2" t="n">
-        <v>203556.2798509409</v>
+        <v>203556.2798509408</v>
       </c>
       <c r="M2" t="n">
         <v>203556.2798509409</v>
       </c>
       <c r="N2" t="n">
-        <v>203556.2798509409</v>
+        <v>203556.2798509408</v>
       </c>
       <c r="O2" t="n">
         <v>203556.2798509409</v>
       </c>
       <c r="P2" t="n">
-        <v>180687.3047541646</v>
+        <v>203556.2798509409</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50726.82133126163</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656034</v>
+        <v>154739.4343656033</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44538.95791520675</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="C4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="D4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="E4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="F4" t="n">
         <v>11907.28194961663</v>
       </c>
       <c r="G4" t="n">
-        <v>11907.28194961663</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="H4" t="n">
         <v>13453.11359961299</v>
@@ -26439,25 +26441,25 @@
         <v>13453.11359961299</v>
       </c>
       <c r="J4" t="n">
+        <v>13453.11359961298</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13453.11359961298</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13453.11359961298</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13453.11359961298</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13453.11359961298</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13453.11359961298</v>
+      </c>
+      <c r="P4" t="n">
         <v>13453.11359961299</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13453.11359961299</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13453.11359961299</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13453.11359961299</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13453.11359961299</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13453.11359961299</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11907.28194961663</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
         <v>47210.5370551278</v>
@@ -26491,7 +26493,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="K5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99001.24046437023</v>
+        <v>-99001.24046437009</v>
       </c>
       <c r="C6" t="n">
-        <v>99194.56552737474</v>
+        <v>99194.56552737477</v>
       </c>
       <c r="D6" t="n">
-        <v>99194.56552737474</v>
+        <v>99194.56552737477</v>
       </c>
       <c r="E6" t="n">
         <v>132822.1655273748</v>
@@ -26534,22 +26536,22 @@
         <v>132822.1655273748</v>
       </c>
       <c r="G6" t="n">
-        <v>132822.1655273747</v>
+        <v>92165.80786493846</v>
       </c>
       <c r="H6" t="n">
-        <v>92957.19698879603</v>
+        <v>142892.6291962001</v>
       </c>
       <c r="I6" t="n">
         <v>142892.6291962001</v>
       </c>
       <c r="J6" t="n">
-        <v>-11846.80516940333</v>
+        <v>-11846.80516940326</v>
       </c>
       <c r="K6" t="n">
         <v>142892.6291962001</v>
       </c>
       <c r="L6" t="n">
-        <v>142892.6291962002</v>
+        <v>142892.6291962001</v>
       </c>
       <c r="M6" t="n">
         <v>142892.6291962001</v>
@@ -26558,10 +26560,10 @@
         <v>142892.6291962001</v>
       </c>
       <c r="O6" t="n">
+        <v>98353.67128099341</v>
+      </c>
+      <c r="P6" t="n">
         <v>142892.6291962001</v>
-      </c>
-      <c r="P6" t="n">
-        <v>132822.1655273748</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,7 +26813,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="K4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692946</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34713,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>587.9315396301786</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34948,10 +34950,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,10 +35023,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>495.9158915145742</v>
+        <v>495.9158915145745</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35185,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>292.470543168895</v>
       </c>
       <c r="O9" t="n">
-        <v>260.7596670179005</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35495,16 +35497,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35650,7 +35652,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>303.8905267322986</v>
+        <v>303.8905267322976</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>227.4725996515685</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35896,13 +35898,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>148.7405620940779</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.05004611020362</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36689,7 +36691,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36920,13 +36922,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37163,10 +37165,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37400,7 +37402,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37637,7 +37639,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
@@ -38029,13 +38031,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>407.086431761155</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>180.451438245074</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>758812.122587323</v>
+        <v>753574.6602064809</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2396483.305182806</v>
+        <v>2396483.305182808</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7729007.486335363</v>
+        <v>7729007.486335366</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>161.4085122120584</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>141.2547446574117</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>22.96189723698674</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>189.6524505998041</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -961,10 +961,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>209.6190453308859</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>304.007403971462</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1147,13 +1147,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>55.9316716452313</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>121.7895914265832</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>289.1043232126777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>19.73044033344715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>25.35996799970722</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1861,10 +1861,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>191.0982260229669</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.9683453503095</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2086,7 +2086,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -2098,10 +2098,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>92.31340177010377</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>68.39008952097898</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>24.3629918151688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.61657914851564</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -2329,16 +2329,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8.00155109238602</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>11.61260049965443</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>171.9323416159863</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>54.7004171927703</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2572,7 +2572,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>25.1660000875939</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>394.6220495976011</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>355.9466455313268</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>178.0255299935642</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>315.2888038066675</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>3.174819748582539</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>54.16209836146486</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.504735143549452</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>37.74482791597677</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3438,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>32.33997518201601</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>196.7816047467306</v>
       </c>
       <c r="U38" t="n">
-        <v>188.9575272525259</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>135.6874999391762</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>224.8761215128415</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>141.6148580396749</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3757,10 +3757,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>17.24363479925001</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -3796,19 +3796,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>163.1726582438466</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3960,10 +3960,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>229.2671475085639</v>
+        <v>8.001551092386331</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>97.61153143263803</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.351871325845</v>
+        <v>1228.513125265401</v>
       </c>
       <c r="C2" t="n">
-        <v>210.351871325845</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D2" t="n">
-        <v>210.351871325845</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E2" t="n">
-        <v>210.351871325845</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F2" t="n">
-        <v>210.351871325845</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>210.351871325845</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.648505077179</v>
+        <v>2018.460476043741</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511778</v>
+        <v>2018.460476043741</v>
       </c>
       <c r="V2" t="n">
-        <v>1767.788966215297</v>
+        <v>2018.460476043741</v>
       </c>
       <c r="W2" t="n">
-        <v>1396.789931183584</v>
+        <v>2018.460476043741</v>
       </c>
       <c r="X2" t="n">
-        <v>1007.337326116641</v>
+        <v>1629.007870976798</v>
       </c>
       <c r="Y2" t="n">
-        <v>610.8466170372419</v>
+        <v>1629.007870976798</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154358</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154358</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>272.5108437565968</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>858.0088487631988</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V4" t="n">
-        <v>77.69124027544164</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W4" t="n">
-        <v>77.69124027544164</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>784.5587760470498</v>
+        <v>632.0566035176071</v>
       </c>
       <c r="C5" t="n">
-        <v>784.5587760470498</v>
+        <v>238.8811020205376</v>
       </c>
       <c r="D5" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E5" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K5" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>503.6092283712866</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M5" t="n">
-        <v>1049.610128415867</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N5" t="n">
-        <v>1577.421412053329</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U5" t="n">
-        <v>2109.895775511778</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V5" t="n">
-        <v>1767.788966215297</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.789931183584</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="X5" t="n">
-        <v>1185.053521758447</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="Y5" t="n">
-        <v>1185.053521758447</v>
+        <v>1032.551349229004</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631988</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769801</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2058.57031924742</v>
+        <v>1714.652229579398</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.394817750351</v>
+        <v>1714.652229579398</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>1329.211100796066</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.648505077179</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.648505077179</v>
+        <v>1714.652229579398</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.648505077179</v>
+        <v>1714.652229579398</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068685</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154359</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1673.129190464088</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C11" t="n">
-        <v>1279.953688967018</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D11" t="n">
-        <v>1279.953688967018</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E11" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F11" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>2242.628715757399</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.648505077179</v>
+        <v>1986.875986191998</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.648505077179</v>
+        <v>1986.875986191998</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.648505077179</v>
+        <v>1615.876951160285</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.648505077179</v>
+        <v>1226.424346093342</v>
       </c>
       <c r="Y11" t="n">
-        <v>2073.623936175485</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>858.0088487631988</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769801</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
         <v>2365.648505077179</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154359</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>440.488471598613</v>
+        <v>1177.734277544119</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154359</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154359</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154359</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154359</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K14" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L14" t="n">
-        <v>851.7967205028082</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M14" t="n">
-        <v>1397.797620547389</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N14" t="n">
-        <v>1925.608904184851</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2345.718767366628</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>2345.718767366628</v>
       </c>
       <c r="U14" t="n">
-        <v>2340.032375784546</v>
+        <v>2345.718767366628</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.925566488064</v>
+        <v>2345.718767366628</v>
       </c>
       <c r="W14" t="n">
-        <v>1626.926531456352</v>
+        <v>1974.719732334915</v>
       </c>
       <c r="X14" t="n">
-        <v>1237.473926389409</v>
+        <v>1974.719732334915</v>
       </c>
       <c r="Y14" t="n">
-        <v>840.9832173100099</v>
+        <v>1578.229023255516</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P15" t="n">
         <v>2365.648505077179</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5469,19 +5469,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2535.796644191037</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C17" t="n">
-        <v>2142.621142693967</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E17" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F17" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5539,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U17" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V17" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W17" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X17" t="n">
-        <v>3105.956385205776</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y17" t="n">
-        <v>2936.291389902433</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1919.518325348037</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C20" t="n">
-        <v>1526.342823850968</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D20" t="n">
-        <v>1526.342823850968</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>1123.759298967512</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>706.8648604974898</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
-        <v>293.7021049854929</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5779,25 +5779,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U20" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V20" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W20" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X20" t="n">
-        <v>2716.503780138833</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y20" t="n">
-        <v>2320.013071059434</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.24607037101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>555.24607037101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>399.6129572735247</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>244.0541451327272</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>86.72821034570018</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
         <v>62.11912770411553</v>
@@ -5940,22 +5940,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V22" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W22" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="X22" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>857.8781540846404</v>
+        <v>1696.017722907454</v>
       </c>
       <c r="C23" t="n">
-        <v>464.702652587571</v>
+        <v>1302.842221410384</v>
       </c>
       <c r="D23" t="n">
-        <v>464.702652587571</v>
+        <v>1302.842221410384</v>
       </c>
       <c r="E23" t="n">
-        <v>62.11912770411551</v>
+        <v>900.2586965269286</v>
       </c>
       <c r="F23" t="n">
-        <v>62.11912770411551</v>
+        <v>483.3642580569064</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411551</v>
+        <v>70.20150254490949</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411551</v>
+        <v>70.20150254490949</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6013,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U23" t="n">
-        <v>2422.196584426364</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V23" t="n">
-        <v>2080.089775129883</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W23" t="n">
-        <v>1709.09074009817</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X23" t="n">
-        <v>1319.638135031227</v>
+        <v>2493.00317769825</v>
       </c>
       <c r="Y23" t="n">
-        <v>923.1474259518279</v>
+        <v>2096.512468618851</v>
       </c>
     </row>
     <row r="24">
@@ -6071,13 +6071,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2697.636305331118</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>2527.431187397107</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>2371.798074299622</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>2216.239262158824</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U25" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V25" t="n">
-        <v>3105.956385205776</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W25" t="n">
-        <v>3105.956385205776</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X25" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>2882.84432402242</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2535.796644191037</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C26" t="n">
-        <v>2142.621142693967</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D26" t="n">
-        <v>1757.180013910635</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E26" t="n">
-        <v>1354.596489027179</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F26" t="n">
-        <v>937.702050557157</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G26" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H26" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6241,37 +6241,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O26" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P26" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q26" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V26" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W26" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.956385205775</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y26" t="n">
-        <v>2709.465676126376</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="27">
@@ -6290,10 +6290,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E27" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F27" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G27" t="n">
         <v>199.803798091603</v>
@@ -6302,28 +6302,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87.53932981279621</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>87.53932981279621</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>87.53932981279621</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K28" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L28" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M28" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N28" t="n">
         <v>677.5630210573304</v>
@@ -6408,28 +6408,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>636.8490770607943</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U28" t="n">
-        <v>636.8490770607943</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V28" t="n">
-        <v>370.8697318816186</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
-        <v>87.53932981279621</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>87.53932981279621</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>87.53932981279621</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>923.1474259518279</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C29" t="n">
-        <v>923.1474259518279</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D29" t="n">
-        <v>923.1474259518279</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E29" t="n">
-        <v>923.1474259518279</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F29" t="n">
-        <v>923.1474259518279</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6490,25 +6490,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T29" t="n">
-        <v>2677.949313991765</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U29" t="n">
-        <v>2422.196584426364</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="V29" t="n">
-        <v>2080.089775129883</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="W29" t="n">
-        <v>1709.09074009817</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="X29" t="n">
-        <v>1319.638135031227</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y29" t="n">
-        <v>923.1474259518279</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>232.3242456381263</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
         <v>62.11912770411553</v>
@@ -6648,25 +6648,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>783.7423825754011</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>783.7423825754011</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>498.3035908173021</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V31" t="n">
-        <v>232.3242456381263</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W31" t="n">
-        <v>232.3242456381263</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X31" t="n">
-        <v>232.3242456381263</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>232.3242456381263</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>912.1052853073743</v>
+        <v>2015.225287135101</v>
       </c>
       <c r="C32" t="n">
-        <v>518.9297838103048</v>
+        <v>1622.049785638031</v>
       </c>
       <c r="D32" t="n">
-        <v>518.9297838103048</v>
+        <v>1622.049785638031</v>
       </c>
       <c r="E32" t="n">
-        <v>518.9297838103048</v>
+        <v>1219.466260754576</v>
       </c>
       <c r="F32" t="n">
-        <v>518.9297838103048</v>
+        <v>802.5718222845536</v>
       </c>
       <c r="G32" t="n">
-        <v>518.9297838103048</v>
+        <v>389.4090667725567</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>65.32601633904738</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6727,25 +6727,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T32" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U32" t="n">
-        <v>2422.196584426364</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="V32" t="n">
-        <v>2080.089775129883</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="W32" t="n">
-        <v>1709.09074009817</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="X32" t="n">
-        <v>1709.09074009817</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="Y32" t="n">
-        <v>1312.600031018771</v>
+        <v>2415.720032846498</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M33" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>442.408306655803</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>442.408306655803</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>442.408306655803</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
         <v>62.11912770411553</v>
@@ -6888,22 +6888,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>442.408306655803</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V34" t="n">
-        <v>442.408306655803</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W34" t="n">
-        <v>442.408306655803</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X34" t="n">
-        <v>442.408306655803</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>442.408306655803</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2073.376476849992</v>
+        <v>1410.897960992606</v>
       </c>
       <c r="C35" t="n">
-        <v>1680.200975352922</v>
+        <v>1017.722459495537</v>
       </c>
       <c r="D35" t="n">
-        <v>1294.75984656959</v>
+        <v>1017.722459495537</v>
       </c>
       <c r="E35" t="n">
-        <v>892.1763216861347</v>
+        <v>615.1389346120814</v>
       </c>
       <c r="F35" t="n">
-        <v>475.2818832161124</v>
+        <v>615.1389346120814</v>
       </c>
       <c r="G35" t="n">
-        <v>62.11912770411553</v>
+        <v>201.9761791000845</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6961,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T35" t="n">
-        <v>2863.323827628332</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U35" t="n">
-        <v>2863.323827628332</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V35" t="n">
-        <v>2863.323827628332</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W35" t="n">
-        <v>2863.323827628332</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="X35" t="n">
-        <v>2473.871222561389</v>
+        <v>2207.883415783402</v>
       </c>
       <c r="Y35" t="n">
-        <v>2473.871222561389</v>
+        <v>1811.392706704003</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
         <v>62.11912770411553</v>
@@ -7119,28 +7119,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>636.8490770607943</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U37" t="n">
-        <v>636.8490770607943</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V37" t="n">
-        <v>636.8490770607943</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W37" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X37" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1192.540435146691</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C38" t="n">
-        <v>799.3649336496217</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D38" t="n">
-        <v>799.3649336496217</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>799.3649336496217</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
         <v>62.11912770411553</v>
@@ -7201,25 +7201,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T38" t="n">
-        <v>2882.455782765193</v>
+        <v>2740.673532422857</v>
       </c>
       <c r="U38" t="n">
-        <v>2691.589593621227</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="V38" t="n">
-        <v>2349.482784324746</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="W38" t="n">
-        <v>1978.483749293033</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="X38" t="n">
-        <v>1589.03114422609</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y38" t="n">
-        <v>1192.540435146691</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C40" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E40" t="n">
-        <v>543.177667430203</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>385.851732643176</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
         <v>62.11912770411553</v>
@@ -7362,22 +7362,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>963.5661502456679</v>
+        <v>736.4185527579492</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>736.4185527579492</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>470.4392075787734</v>
       </c>
       <c r="W40" t="n">
-        <v>680.2357481768456</v>
+        <v>470.4392075787734</v>
       </c>
       <c r="X40" t="n">
-        <v>680.2357481768456</v>
+        <v>470.4392075787734</v>
       </c>
       <c r="Y40" t="n">
-        <v>680.2357481768456</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2021.701838714967</v>
+        <v>1558.999878528189</v>
       </c>
       <c r="C41" t="n">
-        <v>2021.701838714967</v>
+        <v>1415.954567377002</v>
       </c>
       <c r="D41" t="n">
-        <v>1636.260709931635</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.677185048179</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F41" t="n">
-        <v>816.7827465781571</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G41" t="n">
-        <v>403.6199910661603</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H41" t="n">
-        <v>79.5369406326509</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7435,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T41" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U41" t="n">
-        <v>2422.196584426364</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V41" t="n">
-        <v>2422.196584426364</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W41" t="n">
-        <v>2422.196584426364</v>
+        <v>2344.943192674531</v>
       </c>
       <c r="X41" t="n">
-        <v>2422.196584426364</v>
+        <v>1955.490587607588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2422.196584426364</v>
+        <v>1558.999878528189</v>
       </c>
     </row>
     <row r="42">
@@ -7502,13 +7502,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7599,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>798.7452833326915</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>513.3064915745925</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>247.3271463954168</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>247.3271463954168</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X43" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7648,10 +7648,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7678,13 +7678,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V44" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W44" t="n">
         <v>2874.373407924399</v>
@@ -7727,16 +7727,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>112.6101842924878</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>112.6101842924878</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>596.176270190801</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2303.106869161838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>2303.106869161838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>2303.106869161838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>2303.106869161838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>2303.106869161838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>2820.517593447677</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>2820.517593447677</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W46" t="n">
-        <v>2537.187191378855</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X46" t="n">
-        <v>2303.106869161838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>2303.106869161838</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>633.0344498835105</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7993,13 +7993,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8078,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8218,10 +8218,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8230,10 +8230,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>588.3030135638863</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>263.585098225357</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8464,16 +8464,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600587</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8540,10 +8540,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>377.8426560230616</v>
+        <v>500.3175139373677</v>
       </c>
       <c r="O9" t="n">
         <v>92.68755888888889</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8698,19 +8698,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O11" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>422.8212561536977</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>457.1386964627893</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8941,7 +8941,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
@@ -9014,16 +9014,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>308.563698355993</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9184,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9248,22 +9248,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9421,7 +9421,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9719,16 +9719,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046928</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9956,25 +9956,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10193,25 +10193,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10430,25 +10430,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10606,7 +10606,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10670,13 +10670,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,7 +10904,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10913,16 +10913,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11150,16 +11150,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>133.4455245943154</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
@@ -11387,7 +11387,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -22549,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -22564,7 +22564,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>159.4337077171158</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>80.01085175876582</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22728,7 +22728,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>240.3576544903973</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22786,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>191.9342668956949</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22798,10 +22798,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22837,10 +22837,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>175.9390336853879</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22995,16 +22995,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.48239428282091</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23083,10 +23083,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>329.6264073710424</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23263,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23311,22 +23311,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>99.47600498959429</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>103.4214787759271</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23509,10 +23509,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23545,22 +23545,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>145.1179791749128</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>227.8352342700401</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23797,10 +23797,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>194.4598529933068</v>
       </c>
       <c r="Y17" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>228.5288181590705</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
@@ -24034,7 +24034,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>317.1679894952948</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>142.2085215463801</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>118.5727835600602</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>331.8732191057672</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>128.9521946460738</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>144.1400749395023</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
@@ -24420,19 +24420,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>224.5574566382966</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>326.8863003027286</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -24508,7 +24508,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>128.8372239317956</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>14.40907835927572</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>29.61143348494693</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24888,7 +24888,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>22.76239298571193</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
         <v>233.3618613134482</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24925,19 +24925,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.553416122506746</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>133.7789259898773</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -25083,13 +25083,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>99.84112565792464</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25128,19 +25128,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>319.3374847856248</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>183.5207685002007</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25326,16 +25326,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>134.2315381795329</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25441,22 +25441,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>24.48399166944685</v>
       </c>
       <c r="U38" t="n">
-        <v>64.23767501722145</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25557,16 +25557,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>18.3157240802133</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -25602,22 +25602,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>8.485739800606694</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>247.6288884424238</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>119.7101109392098</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25839,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>70.1892030696016</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25918,7 +25918,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
@@ -25927,7 +25927,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>138.0218971728315</v>
+        <v>359.2874935890091</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>68.95998192891088</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>621265.6147921822</v>
+        <v>621265.6147921829</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>621265.6147921825</v>
+        <v>621265.6147921827</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621265.6147921825</v>
+        <v>621265.6147921829</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621265.6147921822</v>
+        <v>621265.6147921829</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>699906.7374890822</v>
+        <v>699906.7374890819</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>699906.7374890818</v>
+        <v>699906.7374890822</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>699906.7374890822</v>
+        <v>699906.7374890819</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>699906.7374890818</v>
+        <v>699906.7374890819</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699906.7374890823</v>
+        <v>699906.7374890822</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699906.7374890819</v>
+        <v>699906.7374890822</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>699906.7374890819</v>
+        <v>699906.7374890822</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="C2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="D2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541647</v>
       </c>
       <c r="E2" t="n">
         <v>180687.3047541645</v>
       </c>
       <c r="F2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="G2" t="n">
         <v>203556.2798509409</v>
@@ -26334,22 +26334,22 @@
         <v>203556.2798509409</v>
       </c>
       <c r="I2" t="n">
-        <v>203556.2798509408</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="J2" t="n">
-        <v>203556.2798509408</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="K2" t="n">
         <v>203556.2798509409</v>
       </c>
       <c r="L2" t="n">
-        <v>203556.2798509408</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="M2" t="n">
         <v>203556.2798509409</v>
       </c>
       <c r="N2" t="n">
-        <v>203556.2798509408</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="O2" t="n">
         <v>203556.2798509409</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50726.82133126163</v>
+        <v>50726.82133126157</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656033</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>44538.95791520675</v>
+        <v>44538.95791520669</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="C4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="D4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="E4" t="n">
         <v>11907.28194961662</v>
@@ -26441,25 +26441,25 @@
         <v>13453.11359961299</v>
       </c>
       <c r="J4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="K4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="L4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="M4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="N4" t="n">
         <v>13453.11359961298</v>
       </c>
       <c r="O4" t="n">
+        <v>13453.11359961299</v>
+      </c>
+      <c r="P4" t="n">
         <v>13453.11359961298</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13453.11359961299</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
         <v>47210.5370551278</v>
@@ -26493,7 +26493,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="K5" t="n">
         <v>47210.5370551278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99001.24046437009</v>
+        <v>-99675.26659059021</v>
       </c>
       <c r="C6" t="n">
-        <v>99194.56552737477</v>
+        <v>98520.53940115476</v>
       </c>
       <c r="D6" t="n">
-        <v>99194.56552737477</v>
+        <v>98520.53940115485</v>
       </c>
       <c r="E6" t="n">
-        <v>132822.1655273748</v>
+        <v>132148.1394011547</v>
       </c>
       <c r="F6" t="n">
-        <v>132822.1655273748</v>
+        <v>132148.1394011548</v>
       </c>
       <c r="G6" t="n">
-        <v>92165.80786493846</v>
+        <v>91634.71283307335</v>
       </c>
       <c r="H6" t="n">
-        <v>142892.6291962001</v>
+        <v>142361.5341643349</v>
       </c>
       <c r="I6" t="n">
-        <v>142892.6291962001</v>
+        <v>142361.534164335</v>
       </c>
       <c r="J6" t="n">
-        <v>-11846.80516940326</v>
+        <v>-12377.90020126852</v>
       </c>
       <c r="K6" t="n">
-        <v>142892.6291962001</v>
+        <v>142361.5341643349</v>
       </c>
       <c r="L6" t="n">
-        <v>142892.6291962001</v>
+        <v>142361.5341643349</v>
       </c>
       <c r="M6" t="n">
-        <v>142892.6291962001</v>
+        <v>142361.5341643349</v>
       </c>
       <c r="N6" t="n">
-        <v>142892.6291962001</v>
+        <v>142361.5341643349</v>
       </c>
       <c r="O6" t="n">
-        <v>98353.67128099341</v>
+        <v>97822.57624912825</v>
       </c>
       <c r="P6" t="n">
-        <v>142892.6291962001</v>
+        <v>142361.5341643349</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
@@ -26813,7 +26813,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>776.4890963014441</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692946</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>479.7862801530189</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34713,13 +34713,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34798,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34950,10 +34950,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>495.9158915145745</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35184,16 +35184,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359623</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35260,10 +35260,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>292.470543168895</v>
+        <v>414.945401083201</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35418,19 +35418,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O11" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>330.4341341043858</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>303.8905267322976</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35661,7 +35661,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>216.1765763066811</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553808</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>35.05004611020362</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37633,16 +37633,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.00106726098205</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
